--- a/spliced/walkingToRunning/2023-03-24_10-00-03/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-00-03/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.480195186688346</v>
+        <v>1.886958264387571</v>
       </c>
       <c r="B2" t="n">
-        <v>1.294306601010827</v>
+        <v>-2.518787022737357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5659719448823164</v>
+        <v>-1.387751776667747</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.409887770506049</v>
+        <v>-1.408535764767576</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5993649148023925</v>
+        <v>-0.4590572393857499</v>
       </c>
       <c r="C3" t="n">
-        <v>2.366707202104431</v>
+        <v>1.789505992944425</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.520585131645206</v>
+        <v>-9.029990652891366</v>
       </c>
       <c r="B4" t="n">
-        <v>0.6457366868853668</v>
+        <v>-0.2165457317462454</v>
       </c>
       <c r="C4" t="n">
-        <v>1.476682871580106</v>
+        <v>2.049246124120849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.4655308118806381</v>
+        <v>-1.633290004730144</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7755842392261201</v>
+        <v>0.8114918470382817</v>
       </c>
       <c r="C5" t="n">
-        <v>0.293587906715959</v>
+        <v>0.4343748807907029</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.7043877029361616</v>
+        <v>4.732972145080568</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.534969633359172</v>
+        <v>-2.583366572856895</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.114159101505689</v>
+        <v>-0.3213605839472549</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.3551079646899151</v>
+        <v>4.758649143805877</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.8718718473727887</v>
+        <v>-1.287177375646699</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.791556031887348</v>
+        <v>0.682966625690469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.14996324281854</v>
+        <v>1.202222677377485</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9319896532939045</v>
+        <v>1.668132488544167</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.830249673357381</v>
+        <v>1.826421522177189</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.324556015088006</v>
+        <v>-3.896952409010684</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2640975006497781</v>
+        <v>0.7400126088123988</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.7738726203258206</v>
+        <v>1.755212721457845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1911227932343139</v>
+        <v>-3.904241349146918</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5675708614289749</v>
+        <v>8.71459445529258</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.251885476020665</v>
+        <v>1.42584520486685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9762309147761512</v>
+        <v>-1.888838914724495</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2426570039529025</v>
+        <v>4.313753348130421</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4792778418614232</v>
+        <v>0.935868626374464</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1150751508199515</v>
+        <v>4.815394823367857</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7187196004849308</v>
+        <v>-4.399581175584057</v>
       </c>
       <c r="C12" t="n">
-        <v>1.227488873096629</v>
+        <v>-2.032744779036629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.849087557425878</v>
+        <v>5.744059562683067</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.957310779278101</v>
+        <v>-2.208836053426431</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.615636436755862</v>
+        <v>-2.385511210331534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.886958264387571</v>
+        <v>-0.9773453107246968</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.518787022737357</v>
+        <v>-5.042484849920636</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.387751776667747</v>
+        <v>-1.550856040532772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.408535764767576</v>
+        <v>-5.169222395236689</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.4590572393857499</v>
+        <v>-6.381682007129349</v>
       </c>
       <c r="C15" t="n">
-        <v>1.789505992944425</v>
+        <v>-6.139806142220171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-9.029990652891366</v>
+        <v>-4.023792711588003</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.2165457317462454</v>
+        <v>7.085793306277576</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049246124120849</v>
+        <v>-4.32150216927884</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.633290004730144</v>
+        <v>1.662728214263952</v>
       </c>
       <c r="B17" t="n">
-        <v>0.8114918470382817</v>
+        <v>4.684056318723108</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4343748807907029</v>
+        <v>-1.641669896932774</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4.732972145080568</v>
+        <v>2.464888723567128</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.583366572856895</v>
+        <v>-12.57504773139953</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3213605839472549</v>
+        <v>-3.376289129257202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4.758649143805877</v>
+        <v>-0.0004609318306818891</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.287177375646699</v>
+        <v>-8.720019648625392</v>
       </c>
       <c r="C19" t="n">
-        <v>0.682966625690469</v>
+        <v>-0.9112097813533104</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.202222677377485</v>
+        <v>-6.561141893869462</v>
       </c>
       <c r="B20" t="n">
-        <v>1.668132488544167</v>
+        <v>1.067614199106516</v>
       </c>
       <c r="C20" t="n">
-        <v>1.826421522177189</v>
+        <v>5.132379430073989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-3.896952409010684</v>
+        <v>-3.78096956106336</v>
       </c>
       <c r="B21" t="n">
-        <v>0.7400126088123988</v>
+        <v>-6.149249487656785</v>
       </c>
       <c r="C21" t="n">
-        <v>1.755212721457845</v>
+        <v>3.56855486356297</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>4.143512133451609</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-9.295757961273193</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.042706482227031</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.805606016746037</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.494310085590225</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.446077621900006</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.119575682053099</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.113574073864802</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2212830832371099</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.658262938719541</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.234168899976305</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.193659129509576</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-2.523965861247135</v>
+      </c>
+      <c r="B26" t="n">
+        <v>9.674394070185159</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.710836189526775</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.4347282877335233</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.832854989858879</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6348883940623381</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.215493936378243</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-6.333109965691214</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-3.700846394667294</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.503521535946755</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-4.84552946755515</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.782033076653083</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.5721309762734461</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.04020348672683609</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.7832388446880931</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-4.998460626602359</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-7.086485686898527</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.6293182730674433</v>
       </c>
     </row>
   </sheetData>
